--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.94460233333334</v>
+        <v>16.782487</v>
       </c>
       <c r="H2">
-        <v>83.83380700000001</v>
+        <v>50.347461</v>
       </c>
       <c r="I2">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
       <c r="J2">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>76.13138833333333</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>228.394165</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.9985083984418027</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P2">
-        <v>0.9985083984418027</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q2">
-        <v>2127.461372059573</v>
+        <v>0.9430191328546667</v>
       </c>
       <c r="R2">
-        <v>19147.15234853615</v>
+        <v>8.487172195692001</v>
       </c>
       <c r="S2">
-        <v>0.9217501320359635</v>
+        <v>0.3637358942728992</v>
       </c>
       <c r="T2">
-        <v>0.9217501320359635</v>
+        <v>0.3637358942728991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.94460233333334</v>
+        <v>16.782487</v>
       </c>
       <c r="H3">
-        <v>83.83380700000001</v>
+        <v>50.347461</v>
       </c>
       <c r="I3">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
       <c r="J3">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,27 +620,27 @@
         <v>0.260213</v>
       </c>
       <c r="O3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q3">
-        <v>2.423849602321222</v>
+        <v>1.455673763243667</v>
       </c>
       <c r="R3">
-        <v>21.81464642089101</v>
+        <v>13.101063869193</v>
       </c>
       <c r="S3">
-        <v>0.001050164162939426</v>
+        <v>0.5614740778802761</v>
       </c>
       <c r="T3">
-        <v>0.001050164162939426</v>
+        <v>0.5614740778802761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.94460233333334</v>
+        <v>1.091026</v>
       </c>
       <c r="H4">
-        <v>83.83380700000001</v>
+        <v>3.273078</v>
       </c>
       <c r="I4">
-        <v>0.9231270698117087</v>
+        <v>0.0601477084462148</v>
       </c>
       <c r="J4">
-        <v>0.9231270698117087</v>
+        <v>0.0601477084462148</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02698966666666667</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N4">
-        <v>0.080969</v>
+        <v>0.168572</v>
       </c>
       <c r="O4">
-        <v>0.0003539855167203345</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P4">
-        <v>0.0003539855167203345</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q4">
-        <v>0.7542155021092223</v>
+        <v>0.06130547829066667</v>
       </c>
       <c r="R4">
-        <v>6.787939518983</v>
+        <v>0.551749304616</v>
       </c>
       <c r="S4">
-        <v>0.0003267736128058259</v>
+        <v>0.02364639506558141</v>
       </c>
       <c r="T4">
-        <v>0.0003267736128058259</v>
+        <v>0.0236463950655814</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>3.273078</v>
       </c>
       <c r="I5">
-        <v>0.03604115107650029</v>
+        <v>0.0601477084462148</v>
       </c>
       <c r="J5">
-        <v>0.03604115107650029</v>
+        <v>0.0601477084462148</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>76.13138833333333</v>
+        <v>0.08673766666666667</v>
       </c>
       <c r="N5">
-        <v>228.394165</v>
+        <v>0.260213</v>
       </c>
       <c r="O5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q5">
-        <v>83.06132408776334</v>
+        <v>0.09463304951266667</v>
       </c>
       <c r="R5">
-        <v>747.5519167898699</v>
+        <v>0.8516974456140001</v>
       </c>
       <c r="S5">
-        <v>0.03598739203939536</v>
+        <v>0.03650131338063341</v>
       </c>
       <c r="T5">
-        <v>0.03598739203939536</v>
+        <v>0.0365013133806334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,25 +773,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.091026</v>
+        <v>0.2655986666666667</v>
       </c>
       <c r="H6">
-        <v>3.273078</v>
+        <v>0.7967960000000001</v>
       </c>
       <c r="I6">
-        <v>0.03604115107650029</v>
+        <v>0.01464231940061012</v>
       </c>
       <c r="J6">
-        <v>0.03604115107650029</v>
+        <v>0.01464231940061012</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,33 +800,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08673766666666667</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N6">
-        <v>0.260213</v>
+        <v>0.168572</v>
       </c>
       <c r="O6">
-        <v>0.001137616041476965</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P6">
-        <v>0.001137616041476965</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q6">
-        <v>0.09463304951266667</v>
+        <v>0.01492416614577778</v>
       </c>
       <c r="R6">
-        <v>0.8516974456140001</v>
+        <v>0.134317495312</v>
       </c>
       <c r="S6">
-        <v>4.100099161792152E-05</v>
+        <v>0.005756463183179565</v>
       </c>
       <c r="T6">
-        <v>4.100099161792152E-05</v>
+        <v>0.005756463183179563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,241 +835,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.091026</v>
+        <v>0.2655986666666667</v>
       </c>
       <c r="H7">
-        <v>3.273078</v>
+        <v>0.7967960000000001</v>
       </c>
       <c r="I7">
-        <v>0.03604115107650029</v>
+        <v>0.01464231940061012</v>
       </c>
       <c r="J7">
-        <v>0.03604115107650029</v>
+        <v>0.01464231940061012</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.02698966666666667</v>
+        <v>0.08673766666666667</v>
       </c>
       <c r="N7">
-        <v>0.080969</v>
+        <v>0.260213</v>
       </c>
       <c r="O7">
-        <v>0.0003539855167203345</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P7">
-        <v>0.0003539855167203345</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q7">
-        <v>0.02944642806466667</v>
+        <v>0.02303740861644445</v>
       </c>
       <c r="R7">
-        <v>0.265017852582</v>
+        <v>0.207336677548</v>
       </c>
       <c r="S7">
-        <v>1.275804548701059E-05</v>
+        <v>0.008885856217430559</v>
       </c>
       <c r="T7">
-        <v>1.275804548701059E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.236046333333333</v>
-      </c>
-      <c r="H8">
-        <v>3.708139</v>
-      </c>
-      <c r="I8">
-        <v>0.04083177911179101</v>
-      </c>
-      <c r="J8">
-        <v>0.04083177911179101</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>76.13138833333333</v>
-      </c>
-      <c r="N8">
-        <v>228.394165</v>
-      </c>
-      <c r="O8">
-        <v>0.9985083984418027</v>
-      </c>
-      <c r="P8">
-        <v>0.9985083984418027</v>
-      </c>
-      <c r="Q8">
-        <v>94.10192340099277</v>
-      </c>
-      <c r="R8">
-        <v>846.9173106089349</v>
-      </c>
-      <c r="S8">
-        <v>0.04077087436644389</v>
-      </c>
-      <c r="T8">
-        <v>0.04077087436644389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.236046333333333</v>
-      </c>
-      <c r="H9">
-        <v>3.708139</v>
-      </c>
-      <c r="I9">
-        <v>0.04083177911179101</v>
-      </c>
-      <c r="J9">
-        <v>0.04083177911179101</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.08673766666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.260213</v>
-      </c>
-      <c r="O9">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="P9">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="Q9">
-        <v>0.1072117748452222</v>
-      </c>
-      <c r="R9">
-        <v>0.9649059736070001</v>
-      </c>
-      <c r="S9">
-        <v>4.645088691961753E-05</v>
-      </c>
-      <c r="T9">
-        <v>4.645088691961753E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.236046333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.708139</v>
-      </c>
-      <c r="I10">
-        <v>0.04083177911179101</v>
-      </c>
-      <c r="J10">
-        <v>0.04083177911179101</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02698966666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.080969</v>
-      </c>
-      <c r="O10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="P10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="Q10">
-        <v>0.03336047852122222</v>
-      </c>
-      <c r="R10">
-        <v>0.300244306691</v>
-      </c>
-      <c r="S10">
-        <v>1.44538584274979E-05</v>
-      </c>
-      <c r="T10">
-        <v>1.44538584274979E-05</v>
+        <v>0.008885856217430557</v>
       </c>
     </row>
   </sheetData>
